--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2684331.888463417</v>
+        <v>2686092.418766201</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>86.05750839311862</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>286.2493926974398</v>
+        <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359316</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680915674</v>
+        <v>1.360597680916442</v>
       </c>
       <c r="S2" t="n">
-        <v>155.146463545928</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>156.1402762037153</v>
+        <v>156.1402762037131</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>100.0187444053789</v>
+        <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370712</v>
+        <v>45.84481919370734</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353308</v>
+        <v>21.62032152353348</v>
       </c>
       <c r="S3" t="n">
-        <v>148.1873837356349</v>
+        <v>148.187383735635</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>181.0111658915699</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>64.28776587497323</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>233.5563560011795</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>192.0793656622107</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>32.25090972307283</v>
       </c>
       <c r="F7" t="n">
-        <v>129.2224443473098</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>66.13561422645557</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>69.72554825810346</v>
       </c>
       <c r="T8" t="n">
-        <v>212.6518631149661</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664352</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958693</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183558</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459917</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
         <v>195.0194028815133</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>130.2353589709418</v>
+        <v>130.2353589709478</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>80.08971311158335</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922726</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>53.30076123484879</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>141.383131826302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892427719</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.9345014072213</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1231.629774787861</v>
+        <v>1446.525410752604</v>
       </c>
       <c r="C2" t="n">
-        <v>1231.629774787861</v>
+        <v>1446.525410752604</v>
       </c>
       <c r="D2" t="n">
-        <v>873.3640761811107</v>
+        <v>1088.259712145854</v>
       </c>
       <c r="E2" t="n">
-        <v>873.3640761811107</v>
+        <v>1001.332935991188</v>
       </c>
       <c r="F2" t="n">
-        <v>462.3781713915031</v>
+        <v>590.3470312015809</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2373706870185</v>
+        <v>173.237370687019</v>
       </c>
       <c r="H2" t="n">
-        <v>173.2373706870185</v>
+        <v>173.237370687019</v>
       </c>
       <c r="I2" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088626</v>
+        <v>72.11519083088524</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118246</v>
+        <v>472.8546275572752</v>
       </c>
       <c r="L2" t="n">
-        <v>699.7444981326076</v>
+        <v>1022.283962163558</v>
       </c>
       <c r="M2" t="n">
-        <v>1327.697042054232</v>
+        <v>1205.218107927276</v>
       </c>
       <c r="N2" t="n">
-        <v>1951.178517094869</v>
+        <v>1632.597796005106</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291966</v>
+        <v>2176.146035202201</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016427</v>
+        <v>2602.377499016428</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888809</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.958036347467</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2262.062400382723</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.368946827795</v>
+        <v>2223.264582792538</v>
       </c>
       <c r="V2" t="n">
-        <v>2008.368946827795</v>
+        <v>2223.264582792538</v>
       </c>
       <c r="W2" t="n">
-        <v>2008.368946827795</v>
+        <v>2223.264582792538</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.368946827795</v>
+        <v>2223.264582792538</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.229614851983</v>
+        <v>1833.125250816726</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>965.1304038988733</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6773746177463</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>641.742964956495</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456715</v>
+        <v>484.0255142456718</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725565</v>
+        <v>337.4909562725568</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679826</v>
+        <v>200.0378524679829</v>
       </c>
       <c r="H3" t="n">
-        <v>99.0088177150746</v>
+        <v>99.00881771507483</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524153</v>
+        <v>380.2766518524143</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900107</v>
+        <v>882.1470455900084</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.737331912401</v>
+        <v>1449.617702133886</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.313937931685</v>
+        <v>1645.290452790179</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.020177892691</v>
+        <v>2191.996692751182</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2613.773581115996</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4436,25 +4436,25 @@
         <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375423</v>
+        <v>2463.523042375421</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.486562480562</v>
+        <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.347004849372</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.19489661763</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1548.957539889428</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1341.106039683895</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1133.345740918941</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4473,67 +4473,67 @@
         <v>200.614013122006</v>
       </c>
       <c r="E4" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131532</v>
+        <v>152.6313247131525</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039149</v>
+        <v>336.0342731039134</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856141</v>
+        <v>539.7960902856119</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066406</v>
+        <v>744.1475233066374</v>
       </c>
       <c r="O4" t="n">
-        <v>916.882851424947</v>
+        <v>916.8828514249431</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351324</v>
+        <v>1041.167083351319</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221474</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221474</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221474</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="T4" t="n">
-        <v>818.1088337555593</v>
+        <v>860.9404017148324</v>
       </c>
       <c r="U4" t="n">
-        <v>818.1088337555593</v>
+        <v>860.9404017148324</v>
       </c>
       <c r="V4" t="n">
-        <v>818.1088337555593</v>
+        <v>860.9404017148324</v>
       </c>
       <c r="W4" t="n">
-        <v>753.1716965081116</v>
+        <v>571.5232316778719</v>
       </c>
       <c r="X4" t="n">
-        <v>753.1716965081116</v>
+        <v>571.5232316778719</v>
       </c>
       <c r="Y4" t="n">
-        <v>532.3791173645815</v>
+        <v>350.7306525343417</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1871.440886743751</v>
+        <v>1953.748490858939</v>
       </c>
       <c r="C5" t="n">
-        <v>1502.47836980334</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="D5" t="n">
-        <v>1502.47836980334</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="E5" t="n">
-        <v>1116.690117205095</v>
+        <v>1198.997721320284</v>
       </c>
       <c r="F5" t="n">
-        <v>705.704212415488</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G5" t="n">
-        <v>288.6164306519154</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>1032.36013938198</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M5" t="n">
-        <v>1219.059552207388</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N5" t="n">
-        <v>1413.39376509937</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866448</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2284.81137820251</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.045976980643</v>
+        <v>2284.81137820251</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.045976980643</v>
+        <v>1953.748490858939</v>
       </c>
       <c r="W5" t="n">
-        <v>2635.045976980643</v>
+        <v>1953.748490858939</v>
       </c>
       <c r="X5" t="n">
-        <v>2261.580218719563</v>
+        <v>1953.748490858939</v>
       </c>
       <c r="Y5" t="n">
-        <v>1871.440886743751</v>
+        <v>1953.748490858939</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G6" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H6" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
         <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>410.174129116721</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>914.5356689828395</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>1094.033005337444</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N6" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4670,7 +4670,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R6" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S6" t="n">
         <v>2464.467288245464</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.1945570251878</v>
+        <v>422.2050061271705</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2583740972809</v>
+        <v>253.2688231992636</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1417346849452</v>
+        <v>103.1521837869278</v>
       </c>
       <c r="E7" t="n">
-        <v>183.228641102552</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="F7" t="n">
-        <v>52.70091953961286</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="G7" t="n">
-        <v>52.70091953961286</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H7" t="n">
-        <v>52.70091953961286</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961286</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J7" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K7" t="n">
         <v>153.7488491352227</v>
@@ -4767,10 +4767,10 @@
         <v>1052.635600998958</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.635600998958</v>
+        <v>824.6460501009403</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8430218554275</v>
+        <v>603.8534709574102</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.50694320842</v>
+        <v>1589.750670197795</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.544426268009</v>
+        <v>1220.788153257384</v>
       </c>
       <c r="D8" t="n">
-        <v>916.2787276612582</v>
+        <v>862.5224546506331</v>
       </c>
       <c r="E8" t="n">
-        <v>530.4904750630139</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5045702734064</v>
+        <v>65.74829726278134</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>241.340818553348</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>644.8079315733916</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1032.360139381993</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207398</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.393765099378</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866453</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205745</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.045976980644</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2564.616130255285</v>
       </c>
       <c r="T8" t="n">
-        <v>2420.246115248354</v>
+        <v>2349.816268522997</v>
       </c>
       <c r="U8" t="n">
-        <v>2420.246115248354</v>
+        <v>2349.816268522997</v>
       </c>
       <c r="V8" t="n">
-        <v>2420.246115248354</v>
+        <v>2349.816268522997</v>
       </c>
       <c r="W8" t="n">
-        <v>2420.246115248354</v>
+        <v>2349.816268522997</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.246115248354</v>
+        <v>1976.350510261917</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.106783272542</v>
+        <v>1976.350510261917</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C9" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D9" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E9" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F9" t="n">
-        <v>336.9631520452694</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5217544044921</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H9" t="n">
-        <v>98.60577654929665</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I9" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3601713965078</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>500.7885757023164</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.150115568433</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.272002033957</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.92874368662</v>
+        <v>1469.689389375326</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.364752439341</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
-        <v>2404.332520920176</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4916,7 +4916,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U9" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V9" t="n">
         <v>1804.187096684975</v>
@@ -4928,7 +4928,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y9" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.6436893777659</v>
+        <v>518.6436893777658</v>
       </c>
       <c r="C10" t="n">
-        <v>349.707506449859</v>
+        <v>349.7075064498589</v>
       </c>
       <c r="D10" t="n">
         <v>199.5908670375232</v>
@@ -4950,64 +4950,64 @@
         <v>199.5908670375232</v>
       </c>
       <c r="F10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K10" t="n">
-        <v>153.7488491352219</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L10" t="n">
-        <v>338.5818440360393</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M10" t="n">
-        <v>543.8514447552762</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N10" t="n">
-        <v>749.6748095913796</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O10" t="n">
-        <v>923.7697049799775</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P10" t="n">
-        <v>1049.217281578592</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q10" t="n">
-        <v>1052.635600998952</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.635600998952</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998952</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998952</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998952</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998952</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.635600998952</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X10" t="n">
-        <v>921.0847333515358</v>
+        <v>921.0847333515356</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.2921542080056</v>
+        <v>700.2921542080055</v>
       </c>
     </row>
     <row r="11">
@@ -5026,22 +5026,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5077,10 +5077,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>282.8695714929399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>135.9796239950296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.8692823226939</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947871</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000582</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>484.811296842984</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2326.078227070189</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.5177471529337</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5594,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5734,25 +5734,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5837,16 +5837,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093041</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6366,16 +6366,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6554,13 +6554,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121598</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121598</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121598</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121598</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270397</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7344,40 +7344,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7548,22 +7548,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>718.5507239167111</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>549.6145409888043</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.1991887469509</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>416.0091887065096</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>239.2643113182423</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872174</v>
+        <v>7.328121188872771</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>394.8286567893823</v>
       </c>
       <c r="N3" t="n">
-        <v>184.7513690535247</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>250.7308605730632</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>214.4812518545905</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>172.9354929867226</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384287</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>250.730860573081</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617264744</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>354.7101519143952</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>65.33133491134789</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462284</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7255247667958</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219467</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.6501519448735</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>840039.5169221701</v>
+        <v>840039.5169221704</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>839356.775842313</v>
+        <v>839356.7758423125</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772888.7093556292</v>
+        <v>772888.709355629</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556293</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520051</v>
@@ -26334,7 +26334,7 @@
         <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520049</v>
@@ -26343,19 +26343,19 @@
         <v>645717.2797520049</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520044</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918907</v>
+        <v>787455.5478918878</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008497046</v>
+        <v>4906.247008499688</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.448949315429976e-09</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765874</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
         <v>172360.9924002808</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909046</v>
+        <v>190891.9800909052</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>189891.8124216195</v>
+        <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707308</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
@@ -26444,22 +26444,22 @@
         <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051743</v>
+        <v>86500.62127051735</v>
       </c>
       <c r="C5" t="n">
-        <v>86618.07783747559</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>86618.07783747552</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408014.7333618859</v>
+        <v>-408014.7333618836</v>
       </c>
       <c r="C6" t="n">
-        <v>375417.2786238355</v>
+        <v>375417.2786238327</v>
       </c>
       <c r="D6" t="n">
-        <v>380323.525632335</v>
+        <v>380323.5256323322</v>
       </c>
       <c r="E6" t="n">
-        <v>-238338.4010995539</v>
+        <v>-238025.75977063</v>
       </c>
       <c r="F6" t="n">
-        <v>537349.9461770334</v>
+        <v>537662.5875059547</v>
       </c>
       <c r="G6" t="n">
-        <v>537349.9461770337</v>
+        <v>537662.587505955</v>
       </c>
       <c r="H6" t="n">
-        <v>537349.9461770336</v>
+        <v>537662.5875059549</v>
       </c>
       <c r="I6" t="n">
-        <v>537349.9461770336</v>
+        <v>537662.5875059548</v>
       </c>
       <c r="J6" t="n">
-        <v>364988.9537767526</v>
+        <v>365301.5951056739</v>
       </c>
       <c r="K6" t="n">
-        <v>537349.9461770335</v>
+        <v>537662.5875059548</v>
       </c>
       <c r="L6" t="n">
-        <v>537349.9461770336</v>
+        <v>537662.587505955</v>
       </c>
       <c r="M6" t="n">
-        <v>409272.3493613201</v>
+        <v>409584.9906902409</v>
       </c>
       <c r="N6" t="n">
-        <v>537349.946177033</v>
+        <v>537662.587505955</v>
       </c>
       <c r="O6" t="n">
-        <v>537349.9461770335</v>
+        <v>537662.5875059548</v>
       </c>
       <c r="P6" t="n">
-        <v>537349.9461770337</v>
+        <v>537662.5875059549</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225531</v>
+        <v>588.0881844225502</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380614</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="D4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225531</v>
+        <v>588.0881844225502</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915511988</v>
+        <v>5.387915915514888</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036123</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544876</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544874</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544876</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.8728616791432</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.6891712119765</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761995</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.50480425168567</v>
+        <v>1.504804251687801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,10 +27557,10 @@
         <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097205</v>
+        <v>123.5587419097206</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775154</v>
+        <v>18.38275699775193</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444893999</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822504</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>42.40325227968535</v>
       </c>
       <c r="U4" t="n">
         <v>286.2611846170395</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>222.2352324616178</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>81.48452807403604</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>20.5724974527553</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>114.1830529234963</v>
       </c>
       <c r="F7" t="n">
-        <v>16.19860367562146</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>346.7812897194813</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752157</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938909</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281405</v>
+        <v>84.92733887003672</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.2665578794172</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176945</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677916</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001188</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>95.47429641809532</v>
+        <v>95.47429641808935</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-3.446504991505769e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28502,7 +28502,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718805</v>
+        <v>2.364173605718793</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956771</v>
+        <v>24.21209293956759</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447431</v>
+        <v>91.14480293447384</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683766</v>
+        <v>200.6562795683756</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984536</v>
+        <v>300.7317482984521</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844706</v>
+        <v>373.0843262844687</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451723</v>
+        <v>415.1281986451703</v>
       </c>
       <c r="N2" t="n">
-        <v>421.845406902421</v>
+        <v>421.8454069024189</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105546</v>
+        <v>398.3366556105526</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193715</v>
+        <v>339.9711197193698</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645668</v>
+        <v>255.3041524645655</v>
       </c>
       <c r="R2" t="n">
-        <v>148.508520260234</v>
+        <v>148.5085202602332</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031732</v>
+        <v>53.87360604031705</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903407</v>
+        <v>10.34916995903402</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575043</v>
+        <v>0.1891338884575034</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682473</v>
+        <v>1.264944396682466</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111757</v>
+        <v>12.21669983111751</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770795</v>
+        <v>43.55181365770773</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777945</v>
+        <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555202</v>
+        <v>204.2607800555192</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305519</v>
+        <v>274.6538261305504</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102914</v>
+        <v>320.5080605102898</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704998</v>
+        <v>328.9909551704982</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808513</v>
+        <v>300.9624503808498</v>
       </c>
       <c r="P3" t="n">
-        <v>241.548899748954</v>
+        <v>241.5488997489527</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361697</v>
+        <v>161.4690426361689</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262911005</v>
+        <v>78.53751262910966</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820293</v>
+        <v>23.49578736820282</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908737</v>
+        <v>5.098613598908711</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753114</v>
+        <v>0.08322002609753072</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942309</v>
+        <v>1.060486889942303</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577989</v>
+        <v>9.428692530577941</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753781</v>
+        <v>31.89173301753765</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892123</v>
+        <v>74.97642311892085</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314791</v>
+        <v>123.2092950314785</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646957</v>
+        <v>157.6654781646949</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934112</v>
+        <v>166.2361403934103</v>
       </c>
       <c r="N4" t="n">
-        <v>162.283416530899</v>
+        <v>162.2834165308983</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983911</v>
+        <v>149.8950014983904</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435679</v>
+        <v>128.2610689435673</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780553</v>
+        <v>88.80131584780507</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776962</v>
+        <v>47.68334688776938</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472187</v>
+        <v>18.48139425472177</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026227</v>
+        <v>4.531171257026204</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139873</v>
+        <v>0.05784473945139844</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.385833569198235</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055143</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651505</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937389</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779002</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712508</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074799</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N8" t="n">
-        <v>425.7102483359644</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822494</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P8" t="n">
-        <v>343.085849542668</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457561</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411488</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810484</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916528</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358588</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840358</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985294</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182814</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847376</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070416</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512805</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842435</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900633</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947058</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671559</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607447</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080756</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784612</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308285</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U9" t="n">
-        <v>0.083982467028971</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888307</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838206958</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784111</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490332</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790233</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889944</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676916</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441081</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714128</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>129.4361645720912</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104727</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937788</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S10" t="n">
-        <v>18.6507161368535</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522766</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05837469839390774</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32077,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>152.5685698206133</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32557,19 +32557,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33034,10 +33034,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.6103750416903</v>
+        <v>19.61037504168928</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347308</v>
+        <v>404.7873098246363</v>
       </c>
       <c r="L2" t="n">
-        <v>553.3271000209929</v>
+        <v>554.9791258649319</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107321</v>
+        <v>184.7819654178976</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178143</v>
+        <v>431.6966546240702</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516133</v>
+        <v>549.0386254516112</v>
       </c>
       <c r="P2" t="n">
-        <v>108.738123964102</v>
+        <v>430.5368321355829</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011727</v>
+        <v>32.99846259011599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937398</v>
+        <v>330.8845780937388</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541369</v>
+        <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>178.3740265882731</v>
+        <v>573.2026833776538</v>
       </c>
       <c r="N3" t="n">
-        <v>382.4006121406912</v>
+        <v>197.6492430871649</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131364</v>
+        <v>552.2285252131348</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745609</v>
+        <v>426.0372609745597</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859973</v>
+        <v>21.48726855014738</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055963</v>
+        <v>100.9398032055957</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250118</v>
+        <v>185.255503425011</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552518</v>
+        <v>205.8200173552509</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101276</v>
+        <v>206.4155889101268</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124308</v>
+        <v>174.48012941243</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084614</v>
+        <v>125.5396282084608</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596111141</v>
+        <v>2.639272596110686</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>391.466876574329</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>410.7784365939666</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
@@ -34956,7 +34956,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>241.2262199194065</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
@@ -35026,13 +35026,13 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451607</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391264</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040844</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>391.4668765743446</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802071</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393735</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233081</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588811</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312113</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584797</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452612</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748655</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348726</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.66337540673</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269909</v>
+        <v>515.8337000646585</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927628</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105723</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531405</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493105</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295322</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233367</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854525</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369847</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899352889</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36682,10 +36682,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899027</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
